--- a/data/results/quantile/Test_output_14.xlsx
+++ b/data/results/quantile/Test_output_14.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2934,7 +2934,7 @@
         <v>0.4912812321556751</v>
       </c>
       <c r="C109" t="n">
-        <v>0.7007233451249426</v>
+        <v>0.7008518921632445</v>
       </c>
       <c r="D109" t="n">
         <v>0.9006234906497808</v>
@@ -2957,7 +2957,7 @@
         <v>0.9433365067929608</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4773781968342423</v>
+        <v>0.4773967740723088</v>
       </c>
       <c r="D110" t="n">
         <v>0.5652847814178346</v>
@@ -2966,7 +2966,7 @@
         <v>0.41194456741871</v>
       </c>
       <c r="F110" t="n">
-        <v>0.5780000436265835</v>
+        <v>0.6423013884280655</v>
       </c>
       <c r="G110" t="n">
         <v>0.3761014815733792</v>
@@ -2980,7 +2980,7 @@
         <v>0.5761219994044767</v>
       </c>
       <c r="C111" t="n">
-        <v>0.3044202531117693</v>
+        <v>0.3043529448937479</v>
       </c>
       <c r="D111" t="n">
         <v>0.1627084862144155</v>
@@ -2989,7 +2989,7 @@
         <v>0.4778947270007299</v>
       </c>
       <c r="F111" t="n">
-        <v>0.4635586489319007</v>
+        <v>0.391150053458325</v>
       </c>
       <c r="G111" t="n">
         <v>0.4604255352451806</v>
@@ -3003,7 +3003,7 @@
         <v>0.8072576534957796</v>
       </c>
       <c r="C112" t="n">
-        <v>0.2344869430246991</v>
+        <v>0.2344296354108254</v>
       </c>
       <c r="D112" t="n">
         <v>0.8775313806463386</v>
@@ -3012,7 +3012,7 @@
         <v>0.5822621148469829</v>
       </c>
       <c r="F112" t="n">
-        <v>0.4964633088647355</v>
+        <v>0.4390010355983561</v>
       </c>
       <c r="G112" t="n">
         <v>0.8302834196687667</v>
@@ -3026,7 +3026,7 @@
         <v>0.2534407267041607</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4647778039128128</v>
+        <v>0.4648223335697539</v>
       </c>
       <c r="D113" t="n">
         <v>0.9017875122029342</v>
@@ -3035,7 +3035,7 @@
         <v>0.3107974084094954</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5079673551846539</v>
+        <v>0.5234432388980005</v>
       </c>
       <c r="G113" t="n">
         <v>0.8654996898354101</v>
@@ -3049,7 +3049,7 @@
         <v>0.8896467550495263</v>
       </c>
       <c r="C114" t="n">
-        <v>0.686008994643257</v>
+        <v>0.6861234840653464</v>
       </c>
       <c r="D114" t="n">
         <v>0.2355296916107448</v>
@@ -3058,7 +3058,7 @@
         <v>0.8789615239620603</v>
       </c>
       <c r="F114" t="n">
-        <v>0.5666965231074887</v>
+        <v>0.6435071996916121</v>
       </c>
       <c r="G114" t="n">
         <v>0.1509052277137027</v>
@@ -3072,7 +3072,7 @@
         <v>0.8438116885259576</v>
       </c>
       <c r="C115" t="n">
-        <v>0.3370547127344014</v>
+        <v>0.337036440640002</v>
       </c>
       <c r="D115" t="n">
         <v>0.4673196117349118</v>
@@ -3081,7 +3081,7 @@
         <v>0.1810685369693951</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4966093138030238</v>
+        <v>0.4793872359353792</v>
       </c>
       <c r="G115" t="n">
         <v>0.6587841497122222</v>
@@ -3095,7 +3095,7 @@
         <v>0.7688745434495422</v>
       </c>
       <c r="C116" t="n">
-        <v>0.1022134449678642</v>
+        <v>0.1020885074147482</v>
       </c>
       <c r="D116" t="n">
         <v>0.289881416863385</v>
@@ -3104,7 +3104,7 @@
         <v>0.2940205150749525</v>
       </c>
       <c r="F116" t="n">
-        <v>0.5191310678638692</v>
+        <v>0.6206542774546602</v>
       </c>
       <c r="G116" t="n">
         <v>0.7661192242908186</v>
@@ -3118,7 +3118,7 @@
         <v>0.5291094405229986</v>
       </c>
       <c r="C117" t="n">
-        <v>0.3095822091434716</v>
+        <v>0.3095657178295489</v>
       </c>
       <c r="D117" t="n">
         <v>0.08292454017879636</v>
@@ -3127,7 +3127,7 @@
         <v>0.4462639348573184</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6484563212867728</v>
+        <v>0.483679293579875</v>
       </c>
       <c r="G117" t="n">
         <v>0.5157540870560146</v>
@@ -3141,7 +3141,7 @@
         <v>0.03179176716899645</v>
       </c>
       <c r="C118" t="n">
-        <v>0.5616827363772259</v>
+        <v>0.5617572321728141</v>
       </c>
       <c r="D118" t="n">
         <v>0.4940177528787141</v>
@@ -3150,7 +3150,7 @@
         <v>0.7976744528457572</v>
       </c>
       <c r="F118" t="n">
-        <v>0.6555067642477946</v>
+        <v>0.5908379933519932</v>
       </c>
       <c r="G118" t="n">
         <v>0.5991423493612255</v>
@@ -3164,7 +3164,7 @@
         <v>0.4319701126128342</v>
       </c>
       <c r="C119" t="n">
-        <v>0.6960194840008929</v>
+        <v>0.6961526382358699</v>
       </c>
       <c r="D119" t="n">
         <v>0.5175721000386014</v>
@@ -3173,7 +3173,7 @@
         <v>0.6131060162630924</v>
       </c>
       <c r="F119" t="n">
-        <v>0.561024845341428</v>
+        <v>0.4379973395177618</v>
       </c>
       <c r="G119" t="n">
         <v>0.9747780161457006</v>
@@ -3187,7 +3187,7 @@
         <v>0.2278884915747672</v>
       </c>
       <c r="C120" t="n">
-        <v>0.2751197224081525</v>
+        <v>0.2750647107732928</v>
       </c>
       <c r="D120" t="n">
         <v>0.5263380864382157</v>
@@ -3196,7 +3196,7 @@
         <v>0.5152578085207764</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5698953841878458</v>
+        <v>0.511651145902541</v>
       </c>
       <c r="G120" t="n">
         <v>0.9499584976605739</v>
@@ -3210,7 +3210,7 @@
         <v>0.1213062958809722</v>
       </c>
       <c r="C121" t="n">
-        <v>0.1503479705663825</v>
+        <v>0.1502347588100905</v>
       </c>
       <c r="D121" t="n">
         <v>0.9512909183242484</v>
@@ -3219,7 +3219,7 @@
         <v>0.6279653935672939</v>
       </c>
       <c r="F121" t="n">
-        <v>0.5969114655453754</v>
+        <v>0.592776279772752</v>
       </c>
       <c r="G121" t="n">
         <v>0.035419660802263</v>
